--- a/Documentation_pieces/Liste_piece_commande_1.xlsx
+++ b/Documentation_pieces/Liste_piece_commande_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_6\Projet\EcouSol\Documentation_pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AD330B-DB65-4430-942C-D1CE6DB89BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9872FAC4-68A8-4226-A8BD-198729788743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="3405" windowWidth="20910" windowHeight="11835" xr2:uid="{AA6DAB43-47D9-4E94-B0E6-EC872C549225}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AA6DAB43-47D9-4E94-B0E6-EC872C549225}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Nombre de pièce:</t>
   </si>
@@ -84,6 +84,45 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/MMSZ5231B-7-F/755472</t>
+  </si>
+  <si>
+    <t>Condensateur 470uF SMT</t>
+  </si>
+  <si>
+    <t>A768KS477M1CLAE017</t>
+  </si>
+  <si>
+    <t>A768KS477M1CLAE017 KEMET | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ampli op audio pour speaker</t>
+  </si>
+  <si>
+    <t>LM386MMX-1/NOPB</t>
+  </si>
+  <si>
+    <t>LM386MMX-1/NOPB Texas Instruments | Integrated Circuits (ICs) | DigiKey</t>
+  </si>
+  <si>
+    <t>Ampli op audio pour micro</t>
+  </si>
+  <si>
+    <t>OPA1652AIDRGT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/OPA1652AIDRGT/8106013</t>
+  </si>
+  <si>
+    <t>Connecteur 3.5mm audio mono</t>
+  </si>
+  <si>
+    <t>MJ-3523-SMT-TR</t>
+  </si>
+  <si>
+    <t>MJ-3523-SMT-TR CUI Devices | Connectors, Interconnects | DigiKey</t>
   </si>
 </sst>
 </file>
@@ -438,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16387E8-49B8-4443-AD5A-3EE6016C22BE}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +498,7 @@
     <col min="5" max="5" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +517,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -498,8 +540,12 @@
       <c r="F2">
         <v>0.24</v>
       </c>
+      <c r="G2">
+        <f>A2*F2</f>
+        <v>1.44</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -518,8 +564,12 @@
       <c r="F3">
         <v>0.32</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">A3*F3</f>
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -537,6 +587,106 @@
       </c>
       <c r="F4">
         <v>0.79</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>1.37</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>12.649999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>4.22</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>1.46</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.92</v>
       </c>
     </row>
   </sheetData>
@@ -544,6 +694,10 @@
     <hyperlink ref="E4" r:id="rId1" display="https://www.digikey.ca/en/products/detail/texas-instruments/TL072HIDDFR/14641418" xr:uid="{7D7D114B-4324-4E62-BAEF-782FFDD22A00}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{78107483-F229-4971-B07C-A027FD78C536}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{3567BFF8-9A5C-4798-94DA-80269233B131}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.digikey.ca/en/products/detail/kemet/A768KS477M1CLAE017/13420066" xr:uid="{B0A0FFE3-2B34-4849-ADE0-C61FDF8E5889}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://www.digikey.ca/en/products/detail/texas-instruments/LM386MMX-1-NOPB/367095" xr:uid="{5CA0A323-45D6-48D0-B889-FE26671B7162}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{A49C857E-32F3-4348-B108-64335869BBF9}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://www.digikey.ca/en/products/detail/cui-devices/MJ-3523-SMT-TR/281296" xr:uid="{113AF0B8-F098-4786-9FDF-4A126D442117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
